--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.7404524724724</v>
+        <v>53.08554433333333</v>
       </c>
       <c r="H2">
-        <v>46.7404524724724</v>
+        <v>159.256633</v>
       </c>
       <c r="I2">
-        <v>0.5675486256778219</v>
+        <v>0.5980804157037442</v>
       </c>
       <c r="J2">
-        <v>0.5675486256778219</v>
+        <v>0.598080415703744</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>4944.241079900929</v>
+        <v>6213.374338112126</v>
       </c>
       <c r="R2">
-        <v>4944.241079900929</v>
+        <v>55920.36904300914</v>
       </c>
       <c r="S2">
-        <v>0.1726922447832079</v>
+        <v>0.1940989634328117</v>
       </c>
       <c r="T2">
-        <v>0.1726922447832079</v>
+        <v>0.1940989634328117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.7404524724724</v>
+        <v>53.08554433333333</v>
       </c>
       <c r="H3">
-        <v>46.7404524724724</v>
+        <v>159.256633</v>
       </c>
       <c r="I3">
-        <v>0.5675486256778219</v>
+        <v>0.5980804157037442</v>
       </c>
       <c r="J3">
-        <v>0.5675486256778219</v>
+        <v>0.598080415703744</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>4743.747687065134</v>
+        <v>5392.431575240322</v>
       </c>
       <c r="R3">
-        <v>4743.747687065134</v>
+        <v>48531.88417716289</v>
       </c>
       <c r="S3">
-        <v>0.1656894199788582</v>
+        <v>0.1684536166952609</v>
       </c>
       <c r="T3">
-        <v>0.1656894199788582</v>
+        <v>0.1684536166952608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.7404524724724</v>
+        <v>53.08554433333333</v>
       </c>
       <c r="H4">
-        <v>46.7404524724724</v>
+        <v>159.256633</v>
       </c>
       <c r="I4">
-        <v>0.5675486256778219</v>
+        <v>0.5980804157037442</v>
       </c>
       <c r="J4">
-        <v>0.5675486256778219</v>
+        <v>0.598080415703744</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>6561.132514885845</v>
+        <v>7539.56942167566</v>
       </c>
       <c r="R4">
-        <v>6561.132514885845</v>
+        <v>67856.12479508095</v>
       </c>
       <c r="S4">
-        <v>0.2291669609157559</v>
+        <v>0.2355278355756715</v>
       </c>
       <c r="T4">
-        <v>0.2291669609157559</v>
+        <v>0.2355278355756714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.0060894740822</v>
+        <v>30.06295833333333</v>
       </c>
       <c r="H5">
-        <v>30.0060894740822</v>
+        <v>90.188875</v>
       </c>
       <c r="I5">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="J5">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>3174.067266728206</v>
+        <v>3518.705820612208</v>
       </c>
       <c r="R5">
-        <v>3174.067266728206</v>
+        <v>31668.35238550988</v>
       </c>
       <c r="S5">
-        <v>0.1108636881830969</v>
+        <v>0.1099204900977118</v>
       </c>
       <c r="T5">
-        <v>0.1108636881830969</v>
+        <v>0.1099204900977118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.0060894740822</v>
+        <v>30.06295833333333</v>
       </c>
       <c r="H6">
-        <v>30.0060894740822</v>
+        <v>90.188875</v>
       </c>
       <c r="I6">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="J6">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>3045.356003440023</v>
+        <v>3053.796429850444</v>
       </c>
       <c r="R6">
-        <v>3045.356003440023</v>
+        <v>27484.167868654</v>
       </c>
       <c r="S6">
-        <v>0.1063680665847739</v>
+        <v>0.09539723334114944</v>
       </c>
       <c r="T6">
-        <v>0.1063680665847739</v>
+        <v>0.09539723334114943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.0060894740822</v>
+        <v>30.06295833333333</v>
       </c>
       <c r="H7">
-        <v>30.0060894740822</v>
+        <v>90.188875</v>
       </c>
       <c r="I7">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="J7">
-        <v>0.3643506629083407</v>
+        <v>0.3386998634578254</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>4212.067253925767</v>
+        <v>4269.745449945111</v>
       </c>
       <c r="R7">
-        <v>4212.067253925767</v>
+        <v>38427.709049506</v>
       </c>
       <c r="S7">
-        <v>0.14711890814047</v>
+        <v>0.1333821400189642</v>
       </c>
       <c r="T7">
-        <v>0.14711890814047</v>
+        <v>0.1333821400189642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.60843233719137</v>
+        <v>5.611374666666666</v>
       </c>
       <c r="H8">
-        <v>5.60843233719137</v>
+        <v>16.834124</v>
       </c>
       <c r="I8">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="J8">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>593.2642943864844</v>
+        <v>656.7808956892707</v>
       </c>
       <c r="R8">
-        <v>593.2642943864844</v>
+        <v>5911.028061203436</v>
       </c>
       <c r="S8">
-        <v>0.02072151035753717</v>
+        <v>0.02051711101225792</v>
       </c>
       <c r="T8">
-        <v>0.02072151035753717</v>
+        <v>0.02051711101225792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.60843233719137</v>
+        <v>5.611374666666666</v>
       </c>
       <c r="H9">
-        <v>5.60843233719137</v>
+        <v>16.834124</v>
       </c>
       <c r="I9">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="J9">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>569.2068972434909</v>
+        <v>570.0036481313209</v>
       </c>
       <c r="R9">
-        <v>569.2068972434909</v>
+        <v>5130.032833181888</v>
       </c>
       <c r="S9">
-        <v>0.01988123460052495</v>
+        <v>0.01780628547946567</v>
       </c>
       <c r="T9">
-        <v>0.01988123460052495</v>
+        <v>0.01780628547946566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.60843233719137</v>
+        <v>5.611374666666666</v>
       </c>
       <c r="H10">
-        <v>5.60843233719137</v>
+        <v>16.834124</v>
       </c>
       <c r="I10">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="J10">
-        <v>0.06810071141383721</v>
+        <v>0.06321972083843048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>787.2766697488722</v>
+        <v>796.9655276530702</v>
       </c>
       <c r="R10">
-        <v>787.2766697488722</v>
+        <v>7172.689748877632</v>
       </c>
       <c r="S10">
-        <v>0.02749796645577509</v>
+        <v>0.0248963243467069</v>
       </c>
       <c r="T10">
-        <v>0.02749796645577509</v>
+        <v>0.0248963243467069</v>
       </c>
     </row>
   </sheetData>
